--- a/Antonio-Feed/Wiring Harnesses/Feed/Control Board to Turbo TC110 Cable (short double clam)/List of materials (short double clam).xlsx
+++ b/Antonio-Feed/Wiring Harnesses/Feed/Control Board to Turbo TC110 Cable (short double clam)/List of materials (short double clam).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahschoultz/Documents/GitHub/Front-Page/Antonio-Feed/Wiring Harnesses/Feed/Control Board to Turbo TC110 Cable (short double clam)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Documents/Wiring Harness Directions/Control Board to Turbo TC110 Cable (short double clam)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E458CF2E-F335-6346-9490-BA7507EE1FA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E4AC49-EC41-7944-8696-C0C79699C86D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2120" yWindow="1000" windowWidth="22600" windowHeight="13540" xr2:uid="{1354B1EE-61B1-EA40-838A-2C3EED4877E0}"/>
+    <workbookView xWindow="7560" yWindow="3260" windowWidth="22600" windowHeight="13540" xr2:uid="{1354B1EE-61B1-EA40-838A-2C3EED4877E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="117">
   <si>
     <t>Material</t>
   </si>
@@ -87,12 +87,6 @@
     <t>Order Number of Manufaturer</t>
   </si>
   <si>
-    <t>Metal Braid</t>
-  </si>
-  <si>
-    <t>Shrink tube</t>
-  </si>
-  <si>
     <t>MULTICOMP</t>
   </si>
   <si>
@@ -147,15 +141,6 @@
     <t>D sub contact pins 28-24 awg</t>
   </si>
   <si>
-    <t>Metal braid ends</t>
-  </si>
-  <si>
-    <t>Plastic braid ends</t>
-  </si>
-  <si>
-    <t>Magnent cover</t>
-  </si>
-  <si>
     <t>15 pin male D sub connector</t>
   </si>
   <si>
@@ -331,23 +316,85 @@
   </si>
   <si>
     <t>Measuring lengths of materials</t>
+  </si>
+  <si>
+    <t>1/8 metal braid</t>
+  </si>
+  <si>
+    <t>Glenair</t>
+  </si>
+  <si>
+    <t>100-001A125</t>
+  </si>
+  <si>
+    <t>654-100001A125</t>
+  </si>
+  <si>
+    <t>4.8mm adhesive shrink tube</t>
+  </si>
+  <si>
+    <t>Metal braid</t>
+  </si>
+  <si>
+    <t>TE Connectivity / Raychem</t>
+  </si>
+  <si>
+    <t>TAT-125-3/16-0-STK</t>
+  </si>
+  <si>
+    <t>650-TAT125316</t>
+  </si>
+  <si>
+    <t>6.4mm in adehsive shrink tube</t>
+  </si>
+  <si>
+    <t>Plastic braid</t>
+  </si>
+  <si>
+    <t>TAT-125-1/4-0-STK</t>
+  </si>
+  <si>
+    <t>650-TAT125014</t>
+  </si>
+  <si>
+    <t>16mm adehsive shrink tube</t>
+  </si>
+  <si>
+    <t>Magnent covers</t>
+  </si>
+  <si>
+    <t>ATUM-16/4-0-STK</t>
+  </si>
+  <si>
+    <t>650-ATUM-16/4-0-STK</t>
+  </si>
+  <si>
+    <t>28in</t>
+  </si>
+  <si>
+    <t>8.5in</t>
+  </si>
+  <si>
+    <t>8in</t>
+  </si>
+  <si>
+    <t>7.75in</t>
+  </si>
+  <si>
+    <t>2in</t>
+  </si>
+  <si>
+    <t>2.5in</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -359,11 +406,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri (Body)"/>
     </font>
     <font>
       <b/>
@@ -384,13 +426,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri (Body)"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -413,24 +448,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -752,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12BA75E2-A133-C247-9618-E9CB2A5F5006}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:M3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -769,453 +801,531 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" t="s">
+        <v>92</v>
+      </c>
+      <c r="M3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="7">
+        <v>2675540202</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="7">
+        <v>2643480102</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11" s="10"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L13" t="s">
+        <v>52</v>
+      </c>
+      <c r="M13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L14" t="s">
+        <v>53</v>
+      </c>
+      <c r="M14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L15" t="s">
+        <v>55</v>
+      </c>
+      <c r="M15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="6">
+        <v>2</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="6">
+        <v>8</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="L2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="D3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="L3" t="s">
-        <v>97</v>
-      </c>
-      <c r="M3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="L4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="D5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>84</v>
-      </c>
-      <c r="L5" t="s">
-        <v>45</v>
-      </c>
-      <c r="M5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="D18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L6" t="s">
-        <v>47</v>
-      </c>
-      <c r="M6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="D7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="L7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" t="s">
-        <v>93</v>
-      </c>
-      <c r="M8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="11">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2675540202</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s">
-        <v>89</v>
-      </c>
-      <c r="L9" t="s">
-        <v>51</v>
-      </c>
-      <c r="M9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" s="11">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2643480102</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" t="s">
-        <v>53</v>
-      </c>
-      <c r="M10" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="C19" s="6">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="E11" s="1"/>
-      <c r="L11" t="s">
-        <v>54</v>
-      </c>
-      <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" t="s">
-        <v>95</v>
-      </c>
-      <c r="F12" t="s">
-        <v>96</v>
-      </c>
-      <c r="G12" t="s">
-        <v>95</v>
-      </c>
-      <c r="L12" t="s">
-        <v>55</v>
-      </c>
-      <c r="M12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="E19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="E13" s="1"/>
-      <c r="L13" t="s">
-        <v>57</v>
-      </c>
-      <c r="M13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="E14" s="1"/>
-      <c r="L14" t="s">
-        <v>58</v>
-      </c>
-      <c r="M14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="E15" s="1"/>
-      <c r="L15" t="s">
-        <v>60</v>
-      </c>
-      <c r="M15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="11">
-        <v>2</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="M16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="11">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" t="s">
-        <v>32</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="11">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s">
-        <v>34</v>
-      </c>
-      <c r="L18" s="6"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="11">
-        <v>2</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="F19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G19" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="F19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Antonio-Feed/Wiring Harnesses/Feed/Control Board to Turbo TC110 Cable (short double clam)/List of materials (short double clam).xlsx
+++ b/Antonio-Feed/Wiring Harnesses/Feed/Control Board to Turbo TC110 Cable (short double clam)/List of materials (short double clam).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Documents/Wiring Harness Directions/Control Board to Turbo TC110 Cable (short double clam)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Documents/GitHub/Front-Page/Antonio-Feed/Wiring Harnesses/Feed/Control Board to Turbo TC110 Cable (short double clam)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E4AC49-EC41-7944-8696-C0C79699C86D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B9901F-88DC-DC49-BA6B-D61227309393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7560" yWindow="3260" windowWidth="22600" windowHeight="13540" xr2:uid="{1354B1EE-61B1-EA40-838A-2C3EED4877E0}"/>
+    <workbookView xWindow="5740" yWindow="1520" windowWidth="26240" windowHeight="15980" xr2:uid="{1354B1EE-61B1-EA40-838A-2C3EED4877E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="116">
   <si>
     <t>Material</t>
   </si>
@@ -231,33 +231,9 @@
     <t>ALPHA WIRE</t>
   </si>
   <si>
-    <t>602-6710-100-07</t>
-  </si>
-  <si>
-    <t>6710 BR005</t>
-  </si>
-  <si>
     <t>Yellow 28 awg</t>
   </si>
   <si>
-    <t>602-6710-100-08</t>
-  </si>
-  <si>
-    <t>6710 OR005</t>
-  </si>
-  <si>
-    <t>602-6710-100-10</t>
-  </si>
-  <si>
-    <t>6710 VI005</t>
-  </si>
-  <si>
-    <t>6712 BK005</t>
-  </si>
-  <si>
-    <t>602-6712-100-02</t>
-  </si>
-  <si>
     <t>6714 RD005</t>
   </si>
   <si>
@@ -270,30 +246,12 @@
     <t>6714 BK005</t>
   </si>
   <si>
-    <t>6710 YL005</t>
-  </si>
-  <si>
-    <t>602-6710-100-05</t>
-  </si>
-  <si>
-    <t>AMP - TE CONNECTIVITY</t>
-  </si>
-  <si>
     <t>205206-3</t>
   </si>
   <si>
-    <t>44F8692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75 Cable Core magnent </t>
-  </si>
-  <si>
     <t>623-2675540202</t>
   </si>
   <si>
-    <t xml:space="preserve">43 Cable Core magnent </t>
-  </si>
-  <si>
     <t>1/4 plastic braid</t>
   </si>
   <si>
@@ -385,6 +343,45 @@
   </si>
   <si>
     <t>2.5in</t>
+  </si>
+  <si>
+    <t>571-2052063</t>
+  </si>
+  <si>
+    <t>6710 VI001</t>
+  </si>
+  <si>
+    <t>602-6710-1000-10</t>
+  </si>
+  <si>
+    <t>6710 BR001</t>
+  </si>
+  <si>
+    <t>602-6710-1000-07</t>
+  </si>
+  <si>
+    <t>6712 BK001</t>
+  </si>
+  <si>
+    <t>602-6712-1000-02</t>
+  </si>
+  <si>
+    <t>6710 YL001</t>
+  </si>
+  <si>
+    <t>602-6710-1000-05</t>
+  </si>
+  <si>
+    <t>6710 OR001</t>
+  </si>
+  <si>
+    <t>602-6710-1000-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Short 75 Cable Core magnent </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Short 43 Cable Core magnent </t>
   </si>
 </sst>
 </file>
@@ -785,7 +782,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D2" sqref="D2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -837,19 +834,19 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>70</v>
+      <c r="E2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>105</v>
       </c>
       <c r="L2" t="s">
         <v>36</v>
@@ -864,25 +861,25 @@
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>65</v>
+      <c r="E3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>107</v>
       </c>
       <c r="L3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="M3" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -893,19 +890,19 @@
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>68</v>
+      <c r="E4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>113</v>
       </c>
       <c r="L4" t="s">
         <v>38</v>
@@ -916,23 +913,23 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
         <v>111</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="L5" t="s">
         <v>40</v>
@@ -949,19 +946,19 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="L6" t="s">
         <v>42</v>
@@ -976,19 +973,19 @@
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="L7" t="s">
         <v>44</v>
@@ -1005,30 +1002,30 @@
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>73</v>
+      <c r="E8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>109</v>
       </c>
       <c r="L8" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="M8" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="6">
@@ -1044,7 +1041,7 @@
         <v>13</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="L9" t="s">
         <v>46</v>
@@ -1055,7 +1052,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="6">
@@ -1082,25 +1079,25 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="L11" t="s">
         <v>49</v>
@@ -1109,25 +1106,25 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="L12" t="s">
         <v>50</v>
@@ -1138,25 +1135,25 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="L13" t="s">
         <v>52</v>
@@ -1167,25 +1164,25 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="L14" t="s">
         <v>53</v>
@@ -1196,25 +1193,25 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="L15" t="s">
         <v>55</v>
@@ -1224,7 +1221,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1233,17 +1230,17 @@
       <c r="C16" s="6">
         <v>2</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>81</v>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>103</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>57</v>
